--- a/results/[9_cold_winters]_#_inv_capacity.xlsx
+++ b/results/[9_cold_winters]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04333185614526987</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01046824628433184</v>
+        <v>0.003837439598569248</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1637141227908215</v>
+        <v>0.3718167378372543</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361374791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932933</v>
+        <v>0.368798651279322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0.597153</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0453796</v>
+        <v>0.0822565</v>
       </c>
       <c r="N2" t="n">
-        <v>4.736581464020373</v>
+        <v>12.82009457445623</v>
       </c>
       <c r="O2" t="n">
-        <v>3.656303071358582</v>
+        <v>3.537984783585709</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1957686902867661</v>
+        <v>0.009688525212652177</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04891593573387359</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3855793199999999</v>
+        <v>0.221684650692804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689946007134286</v>
+        <v>0.4222272367131874</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462981992865724</v>
+        <v>0.1141686999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1457144</v>
+        <v>0.04737166666666669</v>
       </c>
       <c r="N2" t="n">
-        <v>9.281194553257466</v>
+        <v>4.970917217357455</v>
       </c>
       <c r="O2" t="n">
-        <v>4.631638854182333</v>
+        <v>2.349741755853875</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1217033371980867</v>
+        <v>0.03875691745240942</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.03849685245042471</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9240111462843318</v>
+        <v>0.198894071362835</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.610898685597674</v>
+        <v>0.4598544380751153</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7980827695169068</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3337034448854176</v>
+        <v>0.05372516997467353</v>
       </c>
       <c r="N2" t="n">
-        <v>19.47190908937543</v>
+        <v>9.039033233069347</v>
       </c>
       <c r="O2" t="n">
-        <v>18.09318307903055</v>
+        <v>4.931912879036898</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.001072054624113319</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2632697037288338</v>
+        <v>0.159740130277202</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>

--- a/results/[9_cold_winters]_#_inv_capacity.xlsx
+++ b/results/[9_cold_winters]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003837439598569248</v>
+        <v>0.003183900000000101</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3718167378372543</v>
+        <v>0.3723852725881063</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374791</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.368798651279322</v>
+        <v>0.3669021</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.597153</v>
+        <v>0.5961429402307629</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0822565</v>
+        <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.82009457445623</v>
+        <v>12.89781179131339</v>
       </c>
       <c r="O2" t="n">
-        <v>3.537984783585709</v>
+        <v>3.475337169561457</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009688525212652177</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04891593573387359</v>
+        <v>0.07396955163932978</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.221684650692804</v>
+        <v>0.3637656372628776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4222272367131874</v>
+        <v>0.5780978354701471</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1141686999999999</v>
+        <v>0.2763239402451296</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04737166666666669</v>
+        <v>0.08143291666666665</v>
       </c>
       <c r="N2" t="n">
-        <v>4.970917217357455</v>
+        <v>9.06843726173757</v>
       </c>
       <c r="O2" t="n">
-        <v>2.349741755853875</v>
+        <v>3.840635583889667</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03875691745240942</v>
+        <v>0.05173369849322602</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03849685245042471</v>
+        <v>0.02941088209256308</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.198894071362835</v>
+        <v>0.1975555792241696</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4598544380751153</v>
+        <v>0.4424245787642941</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05372516997467353</v>
+        <v>0.0525461666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>9.039033233069347</v>
+        <v>8.760925509998557</v>
       </c>
       <c r="O2" t="n">
-        <v>4.931912879036898</v>
+        <v>5.233712211049507</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001072054624113319</v>
+        <v>0.001164164422075072</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.159740130277202</v>
+        <v>0.1863654784114568</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>

--- a/results/[9_cold_winters]_#_inv_capacity.xlsx
+++ b/results/[9_cold_winters]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04333185614526987</v>
+        <v>0.1774173491026328</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01046824628433184</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.698886550485734</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1637141227908215</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3247024241048815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932933</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0453796</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.736581464020373</v>
+        <v>8.201288923901528</v>
       </c>
       <c r="O2" t="n">
-        <v>3.656303071358582</v>
+        <v>3.364628064996621</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1957686902867661</v>
+        <v>0.1838343582855003</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.223231300685788</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3855793199999999</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2403690565694545</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689946007134286</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462981992865724</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1457144</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.281194553257466</v>
+        <v>19.57790891137552</v>
       </c>
       <c r="O2" t="n">
-        <v>4.631638854182333</v>
+        <v>6.646311143090884</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1217033371980867</v>
+        <v>0.8203322023592921</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.822635544969841</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9240111462843318</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.08034737765798905</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222383</v>
       </c>
       <c r="I2" t="n">
-        <v>1.610898685597674</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7980827695169068</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3337034448854176</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19.47190908937543</v>
+        <v>21.10865230563079</v>
       </c>
       <c r="O2" t="n">
-        <v>18.09318307903055</v>
+        <v>7.285821150244674</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>13.32901719991967</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2632697037288338</v>
+        <v>0.4601766900374478</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.747902031816068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[9_cold_winters]_#_inv_capacity.xlsx
+++ b/results/[9_cold_winters]_#_inv_capacity.xlsx
@@ -559,7 +559,7 @@
         <v>8.201288923901528</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996621</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +702,7 @@
         <v>19.57790891137552</v>
       </c>
       <c r="O2" t="n">
-        <v>6.646311143090884</v>
+        <v>6.64631114309088</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8203322023592921</v>
+        <v>0.8203322023592923</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222383</v>
+        <v>0.1261817221222069</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>21.10865230563079</v>
       </c>
       <c r="O2" t="n">
-        <v>7.285821150244674</v>
+        <v>7.28582115024612</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13.32901719991967</v>
+        <v>13.32901719991961</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4601766900374478</v>
+        <v>0.4601766900374475</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.747902031816068</v>
+        <v>6.74790203181611</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>

--- a/results/[9_cold_winters]_#_inv_capacity.xlsx
+++ b/results/[9_cold_winters]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003183900000000101</v>
+        <v>0.003183900000000065</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3723852725881063</v>
+        <v>0.3723852725881065</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361374967</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.89781179131339</v>
+        <v>12.89781179131342</v>
       </c>
       <c r="O2" t="n">
-        <v>3.475337169561457</v>
+        <v>3.475337169561459</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07396955163932978</v>
+        <v>0.07396955163932982</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3637656372628776</v>
+        <v>0.3637656372628777</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2763239402451296</v>
+        <v>0.2763239402451295</v>
       </c>
       <c r="M2" t="n">
         <v>0.08143291666666665</v>
       </c>
       <c r="N2" t="n">
-        <v>9.06843726173757</v>
+        <v>9.068437261737564</v>
       </c>
       <c r="O2" t="n">
-        <v>3.840635583889667</v>
+        <v>3.840635583889666</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05173369849322602</v>
+        <v>0.05173369849322611</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02941088209256308</v>
+        <v>0.02941088209256294</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1975555792241696</v>
+        <v>0.1975555792241693</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4424245787642941</v>
+        <v>0.4424245787642774</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.0525461666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>8.760925509998557</v>
+        <v>8.760925509998572</v>
       </c>
       <c r="O2" t="n">
-        <v>5.233712211049507</v>
+        <v>5.233712211049785</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001164164422075072</v>
+        <v>0.001164164422074974</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1863654784114568</v>
+        <v>0.186365478411457</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
